--- a/Formatted_Excel_Files/Society_Health_Obesity.xlsx
+++ b/Formatted_Excel_Files/Society_Health_Obesity.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="270" windowWidth="17520" windowHeight="13200" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="270" windowWidth="17520" windowHeight="13200" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Tropics" sheetId="2" r:id="rId2"/>
-    <sheet name="Rest of the World" sheetId="4" r:id="rId3"/>
-    <sheet name="Tropics-Tableau" sheetId="5" r:id="rId4"/>
-    <sheet name="Rest of the World-Tableau" sheetId="6" r:id="rId5"/>
+    <sheet name="Summary (2)" sheetId="7" r:id="rId1"/>
+    <sheet name="Summary" sheetId="1" r:id="rId2"/>
+    <sheet name="Tropics" sheetId="2" r:id="rId3"/>
+    <sheet name="Rest of the World" sheetId="4" r:id="rId4"/>
+    <sheet name="Tropics-Tableau" sheetId="5" r:id="rId5"/>
+    <sheet name="Rest of the World-Tableau" sheetId="6" r:id="rId6"/>
+    <sheet name="Summary (2)-Tableau" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="229">
   <si>
     <t>Region</t>
   </si>
@@ -702,6 +704,9 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>Prevalence of Obsesity</t>
   </si>
 </sst>
 </file>
@@ -1148,11 +1153,489 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="15" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4">
+        <v>2002</v>
+      </c>
+      <c r="C1" s="4">
+        <v>2005</v>
+      </c>
+      <c r="D1" s="4">
+        <v>2010</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="23">
+        <v>4.4297830135113972E-2</v>
+      </c>
+      <c r="C2" s="8">
+        <v>5.179153448775016E-2</v>
+      </c>
+      <c r="D2" s="8">
+        <v>6.7790182460754855E-2</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.1862863708456318E-2</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2.5935657092907058E-2</v>
+      </c>
+      <c r="D3" s="9">
+        <v>3.3484731080998163E-2</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4.6999142821743251E-2</v>
+      </c>
+      <c r="C4" s="9">
+        <v>5.379726964561312E-2</v>
+      </c>
+      <c r="D4" s="9">
+        <v>6.227002381880728E-2</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9.1143395480099056E-3</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1.1394636425232151E-2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1.6888384165982751E-2</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.899923233210242E-2</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2.316433595472241E-2</v>
+      </c>
+      <c r="D6" s="9">
+        <v>3.4484260759117279E-2</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="21">
+        <v>0.14737557282550237</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0.17883108913727466</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0.22856016471360602</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="21">
+        <v>0.23103089771373836</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0.26015027934049995</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0.31634835811709872</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="21">
+        <v>0.13882890772732331</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0.16253602913775866</v>
+      </c>
+      <c r="D9" s="22">
+        <v>0.21413292913135368</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="21">
+        <v>0.14292301416896813</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0.15734671026891267</v>
+      </c>
+      <c r="D10" s="22">
+        <v>0.18220972013774844</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="23">
+        <v>9.9922295069511918E-2</v>
+      </c>
+      <c r="C11" s="23">
+        <v>0.10885465617410309</v>
+      </c>
+      <c r="D11" s="23">
+        <v>0.12798548725747363</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="23">
+        <v>7.9492821265831889E-2</v>
+      </c>
+      <c r="C12" s="23">
+        <v>8.7672779448158905E-2</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0.10514013410054963</v>
+      </c>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+    </row>
+    <row r="17" spans="2:22">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+    </row>
+    <row r="18" spans="2:22">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:22">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="2:22">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1665,7 +2148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M110"/>
   <sheetViews>
@@ -3536,7 +4019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D108"/>
   <sheetViews>
@@ -4974,7 +5457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D310"/>
   <sheetViews>
@@ -9333,11 +9816,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C277"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -12396,4 +12879,393 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>2002</v>
+      </c>
+      <c r="C2">
+        <v>4.4297830135113972E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>2005</v>
+      </c>
+      <c r="C3">
+        <v>5.179153448775016E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>2010</v>
+      </c>
+      <c r="C4">
+        <v>6.7790182460754855E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2002</v>
+      </c>
+      <c r="C5">
+        <v>2.1862863708456318E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2005</v>
+      </c>
+      <c r="C6">
+        <v>2.5935657092907058E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2010</v>
+      </c>
+      <c r="C7">
+        <v>3.3484731080998163E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>2002</v>
+      </c>
+      <c r="C8">
+        <v>4.6999142821743251E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>2005</v>
+      </c>
+      <c r="C9">
+        <v>5.379726964561312E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>2010</v>
+      </c>
+      <c r="C10">
+        <v>6.227002381880728E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>2002</v>
+      </c>
+      <c r="C11">
+        <v>9.1143395480099056E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>2005</v>
+      </c>
+      <c r="C12">
+        <v>1.1394636425232151E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>2010</v>
+      </c>
+      <c r="C13">
+        <v>1.6888384165982751E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14">
+        <v>2002</v>
+      </c>
+      <c r="C14">
+        <v>1.899923233210242E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15">
+        <v>2005</v>
+      </c>
+      <c r="C15">
+        <v>2.316433595472241E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16">
+        <v>2010</v>
+      </c>
+      <c r="C16">
+        <v>3.4484260759117279E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>2002</v>
+      </c>
+      <c r="C17">
+        <v>0.14737557282550237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>2005</v>
+      </c>
+      <c r="C18">
+        <v>0.17883108913727466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>2010</v>
+      </c>
+      <c r="C19">
+        <v>0.22856016471360602</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>2002</v>
+      </c>
+      <c r="C20">
+        <v>0.23103089771373836</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>2005</v>
+      </c>
+      <c r="C21">
+        <v>0.26015027934049995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>2010</v>
+      </c>
+      <c r="C22">
+        <v>0.31634835811709872</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>2002</v>
+      </c>
+      <c r="C23">
+        <v>0.13882890772732331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>2005</v>
+      </c>
+      <c r="C24">
+        <v>0.16253602913775866</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>2010</v>
+      </c>
+      <c r="C25">
+        <v>0.21413292913135368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>2002</v>
+      </c>
+      <c r="C26">
+        <v>0.14292301416896813</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>2005</v>
+      </c>
+      <c r="C27">
+        <v>0.15734671026891267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>2010</v>
+      </c>
+      <c r="C28">
+        <v>0.18220972013774844</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29">
+        <v>2002</v>
+      </c>
+      <c r="C29">
+        <v>9.9922295069511918E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30">
+        <v>2005</v>
+      </c>
+      <c r="C30">
+        <v>0.10885465617410309</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31">
+        <v>2010</v>
+      </c>
+      <c r="C31">
+        <v>0.12798548725747363</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>2002</v>
+      </c>
+      <c r="C32">
+        <v>7.9492821265831889E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>2005</v>
+      </c>
+      <c r="C33">
+        <v>8.7672779448158905E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>2010</v>
+      </c>
+      <c r="C34">
+        <v>0.10514013410054963</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>